--- a/Data/resultados-comb-1.xlsx
+++ b/Data/resultados-comb-1.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Combinação de 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -26,160 +26,160 @@
     <t xml:space="preserve">entropy</t>
   </si>
   <si>
-    <t xml:space="preserve">N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_73_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_14_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_18_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_27_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_normal_control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_5_very_mild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_1_mild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_2_moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_3_severe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_5_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_12_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_3_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_17_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_59_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_16_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_10_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_3_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_3_56_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_0_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_52_inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_absence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_presence</t>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini mental state score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical dementia rating scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_normal_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_5_very_mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_moderate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_severe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbal fluency test score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfeffer questionnaire score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock drawing test scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial making test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroop color word test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawton scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQCode score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_3_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_56_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berg balance scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52_inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presence</t>
   </si>
 </sst>
 </file>
